--- a/Code/Results/Cases/Case_4_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9493434332356969</v>
+        <v>0.6348862741258756</v>
       </c>
       <c r="C2">
-        <v>0.1324424963407544</v>
+        <v>0.1660329477771043</v>
       </c>
       <c r="D2">
-        <v>0.190603739246697</v>
+        <v>0.07741023265785429</v>
       </c>
       <c r="E2">
-        <v>0.06127925914716847</v>
+        <v>0.1237860245306699</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008330573194088448</v>
+        <v>0.002522169166861987</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7799886599640615</v>
+        <v>0.301206131509133</v>
       </c>
       <c r="L2">
-        <v>0.146901500279462</v>
+        <v>0.1936269566045041</v>
       </c>
       <c r="M2">
-        <v>0.2040905381764233</v>
+        <v>0.1761975111647409</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.673035594521735</v>
+        <v>6.019464854163488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8259284233427024</v>
+        <v>0.6040193108883614</v>
       </c>
       <c r="C3">
-        <v>0.13076681491874</v>
+        <v>0.1651346122813457</v>
       </c>
       <c r="D3">
-        <v>0.165284617754736</v>
+        <v>0.07038428588825241</v>
       </c>
       <c r="E3">
-        <v>0.06011326298921738</v>
+        <v>0.1240181189210272</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008378603006907673</v>
+        <v>0.002525249183918784</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.676983463541319</v>
+        <v>0.2726903643780219</v>
       </c>
       <c r="L3">
-        <v>0.1335892269683114</v>
+        <v>0.1911695842255696</v>
       </c>
       <c r="M3">
-        <v>0.1791683761865812</v>
+        <v>0.1703838107122486</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.567217654705672</v>
+        <v>6.019389523647959</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7507354015242811</v>
+        <v>0.5853860983739878</v>
       </c>
       <c r="C4">
-        <v>0.129734713632665</v>
+        <v>0.1645701085249023</v>
       </c>
       <c r="D4">
-        <v>0.1498995470529962</v>
+        <v>0.0661056833492637</v>
       </c>
       <c r="E4">
-        <v>0.05946611522363909</v>
+        <v>0.1242013713758965</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008409054536752316</v>
+        <v>0.002527241856007538</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6139929035809644</v>
+        <v>0.2552809379992595</v>
       </c>
       <c r="L4">
-        <v>0.1255847515263966</v>
+        <v>0.1897537074724909</v>
       </c>
       <c r="M4">
-        <v>0.1640316764537957</v>
+        <v>0.1669053173570987</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.507649162655923</v>
+        <v>6.021859274864568</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7202222313668187</v>
+        <v>0.577873595309228</v>
       </c>
       <c r="C5">
-        <v>0.129313110062462</v>
+        <v>0.1643368222911796</v>
       </c>
       <c r="D5">
-        <v>0.143665589136333</v>
+        <v>0.06437099703272509</v>
       </c>
       <c r="E5">
-        <v>0.05921908074254389</v>
+        <v>0.1242863093233364</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008421710428826944</v>
+        <v>0.002528079493852908</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5883738707925517</v>
+        <v>0.2482117171233114</v>
       </c>
       <c r="L5">
-        <v>0.1223625401808022</v>
+        <v>0.1892001463597097</v>
       </c>
       <c r="M5">
-        <v>0.1579008730408411</v>
+        <v>0.1655108034750867</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.484667040386768</v>
+        <v>6.023498478760786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7151627941302365</v>
+        <v>0.5766310350457786</v>
       </c>
       <c r="C6">
-        <v>0.1292430362854979</v>
+        <v>0.1642978893097755</v>
       </c>
       <c r="D6">
-        <v>0.1426324562050638</v>
+        <v>0.0640834896182696</v>
       </c>
       <c r="E6">
-        <v>0.05917905121449607</v>
+        <v>0.1243010333991403</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008423826968509689</v>
+        <v>0.002528220132099059</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.584122484368919</v>
+        <v>0.2470394122663748</v>
       </c>
       <c r="L6">
-        <v>0.1218298091457655</v>
+        <v>0.1891096438000446</v>
       </c>
       <c r="M6">
-        <v>0.1568850082481781</v>
+        <v>0.1652806371000537</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.480927069811941</v>
+        <v>6.023808887242296</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7503233930081024</v>
+        <v>0.5852844549058887</v>
       </c>
       <c r="C7">
-        <v>0.1297290320999309</v>
+        <v>0.1645669754857515</v>
       </c>
       <c r="D7">
-        <v>0.1498153359198255</v>
+        <v>0.06608225282731439</v>
       </c>
       <c r="E7">
-        <v>0.05946271686438642</v>
+        <v>0.1242024753115842</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008409224213014274</v>
+        <v>0.002527253048869439</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6136472112641655</v>
+        <v>0.255185497364522</v>
       </c>
       <c r="L7">
-        <v>0.125541138719683</v>
+        <v>0.1897461470664226</v>
       </c>
       <c r="M7">
-        <v>0.1639488476326747</v>
+        <v>0.166886417218155</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.507334069414526</v>
+        <v>6.021878819615324</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9066572657283416</v>
+        <v>0.6241773235777259</v>
       </c>
       <c r="C8">
-        <v>0.1318652628991472</v>
+        <v>0.165725885239425</v>
       </c>
       <c r="D8">
-        <v>0.1818372611591741</v>
+        <v>0.07498033847961949</v>
       </c>
       <c r="E8">
-        <v>0.0608625703104746</v>
+        <v>0.1238576029477798</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008346937492728576</v>
+        <v>0.00252321013124213</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7444108139913226</v>
+        <v>0.2913534255243349</v>
       </c>
       <c r="L8">
-        <v>0.1422744891609327</v>
+        <v>0.1927603863055154</v>
       </c>
       <c r="M8">
-        <v>0.1954604446195667</v>
+        <v>0.1741740774633946</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.635386781080854</v>
+        <v>6.018916724202853</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.218760134299799</v>
+        <v>0.7029656906039747</v>
       </c>
       <c r="C9">
-        <v>0.1360390984469433</v>
+        <v>0.1678959277226113</v>
       </c>
       <c r="D9">
-        <v>0.2461465440175772</v>
+        <v>0.09271147801162272</v>
       </c>
       <c r="E9">
-        <v>0.06418281629094658</v>
+        <v>0.1235040041859019</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008232179415640557</v>
+        <v>0.002516084025555325</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.003548348770124</v>
+        <v>0.3630588624062625</v>
       </c>
       <c r="L9">
-        <v>0.1765725530735907</v>
+        <v>0.1994074638843415</v>
       </c>
       <c r="M9">
-        <v>0.2587695295574406</v>
+        <v>0.1891856784037707</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.932580273611421</v>
+        <v>6.033073731351237</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.452790986932655</v>
+        <v>0.7623764140513174</v>
       </c>
       <c r="C10">
-        <v>0.1391124441472584</v>
+        <v>0.1694277934688557</v>
       </c>
       <c r="D10">
-        <v>0.2946733367846548</v>
+        <v>0.1059138734697029</v>
       </c>
       <c r="E10">
-        <v>0.0670166113313222</v>
+        <v>0.1234402296680841</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008152013916794533</v>
+        <v>0.002511332456939115</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.196630820666229</v>
+        <v>0.4162111265986539</v>
       </c>
       <c r="L10">
-        <v>0.2028870685694528</v>
+        <v>0.2047387190339407</v>
       </c>
       <c r="M10">
-        <v>0.3065093756647457</v>
+        <v>0.2006517892731594</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.183810594988046</v>
+        <v>6.055658907306395</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.560612695508439</v>
+        <v>0.7897331222930575</v>
       </c>
       <c r="C11">
-        <v>0.1405161620963469</v>
+        <v>0.1701111397274744</v>
       </c>
       <c r="D11">
-        <v>0.3171126029359641</v>
+        <v>0.111958860438591</v>
       </c>
       <c r="E11">
-        <v>0.06840190989772665</v>
+        <v>0.1234536371230739</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008116360652136056</v>
+        <v>0.002509274880822738</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.285306780679718</v>
+        <v>0.4404928243598079</v>
       </c>
       <c r="L11">
-        <v>0.2151513254216297</v>
+        <v>0.2072610590793573</v>
       </c>
       <c r="M11">
-        <v>0.3285670618225893</v>
+        <v>0.2059625653375647</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.306399079868584</v>
+        <v>6.068582458309947</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.601666875056111</v>
+        <v>0.8001396112309749</v>
       </c>
       <c r="C12">
-        <v>0.1410489032504572</v>
+        <v>0.1703679620925627</v>
       </c>
       <c r="D12">
-        <v>0.3256697849351724</v>
+        <v>0.1142536028529832</v>
       </c>
       <c r="E12">
-        <v>0.06894125940439366</v>
+        <v>0.1234648005123553</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008102969337048232</v>
+        <v>0.002508510596247519</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.319029730234547</v>
+        <v>0.4497022171227911</v>
       </c>
       <c r="L12">
-        <v>0.2198422611617019</v>
+        <v>0.2082301380198714</v>
       </c>
       <c r="M12">
-        <v>0.3369752628579477</v>
+        <v>0.2079871874704651</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.354118949760277</v>
+        <v>6.073857363544619</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.59281465550697</v>
+        <v>0.7978962997111125</v>
       </c>
       <c r="C13">
-        <v>0.1409341088903915</v>
+        <v>0.1703127374089277</v>
       </c>
       <c r="D13">
-        <v>0.3238240511651043</v>
+        <v>0.1137591381969969</v>
       </c>
       <c r="E13">
-        <v>0.06882442842266201</v>
+        <v>0.1234621258024617</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008105848635223051</v>
+        <v>0.002508674538272536</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.31176014271756</v>
+        <v>0.447718172011804</v>
       </c>
       <c r="L13">
-        <v>0.2188298304659355</v>
+        <v>0.2080208109629069</v>
       </c>
       <c r="M13">
-        <v>0.3351618324204537</v>
+        <v>0.2075505477094168</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.343782126455267</v>
+        <v>6.072704370785516</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.563985575554653</v>
+        <v>0.7905883289238318</v>
       </c>
       <c r="C14">
-        <v>0.1405599650277267</v>
+        <v>0.1701323076803973</v>
       </c>
       <c r="D14">
-        <v>0.3178153612169581</v>
+        <v>0.1121475372639367</v>
       </c>
       <c r="E14">
-        <v>0.06844598094514254</v>
+        <v>0.1234544336410188</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008115256783677551</v>
+        <v>0.002509211704907772</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.288078182282362</v>
+        <v>0.441250198905351</v>
       </c>
       <c r="L14">
-        <v>0.215536287972526</v>
+        <v>0.2073405069845933</v>
       </c>
       <c r="M14">
-        <v>0.329257659741792</v>
+        <v>0.2061288612035241</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.310298374395074</v>
+        <v>6.06900879109935</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.546357057925633</v>
+        <v>0.7861181067025598</v>
       </c>
       <c r="C15">
-        <v>0.1403309570167224</v>
+        <v>0.1700215357226398</v>
       </c>
       <c r="D15">
-        <v>0.3141429025354228</v>
+        <v>0.1111611194727971</v>
       </c>
       <c r="E15">
-        <v>0.06821612299314239</v>
+        <v>0.1234505141828919</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008121033619328215</v>
+        <v>0.002509542670284427</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.27359164987584</v>
+        <v>0.4372902505531044</v>
       </c>
       <c r="L15">
-        <v>0.2135251231266153</v>
+        <v>0.2069256131324408</v>
       </c>
       <c r="M15">
-        <v>0.3256486032256589</v>
+        <v>0.2052597988523246</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.289960927188247</v>
+        <v>6.066794765601003</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.445774365485732</v>
+        <v>0.7605952024580915</v>
       </c>
       <c r="C16">
-        <v>0.1390208522872527</v>
+        <v>0.1693828630639445</v>
       </c>
       <c r="D16">
-        <v>0.2932148383197557</v>
+        <v>0.1055196077967651</v>
       </c>
       <c r="E16">
-        <v>0.06692809274323253</v>
+        <v>0.1234402058797492</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008154359717384482</v>
+        <v>0.002511469009688011</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.190854436344807</v>
+        <v>0.4146262972755039</v>
       </c>
       <c r="L16">
-        <v>0.2020918563047474</v>
+        <v>0.2045758289118424</v>
       </c>
       <c r="M16">
-        <v>0.305075247800751</v>
+        <v>0.2003066177379367</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.175974947138599</v>
+        <v>6.054867640688286</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.384438268922338</v>
+        <v>0.745022066661079</v>
       </c>
       <c r="C17">
-        <v>0.13821884223605</v>
+        <v>0.1689875958745688</v>
       </c>
       <c r="D17">
-        <v>0.2804746141435857</v>
+        <v>0.1020687558784772</v>
       </c>
       <c r="E17">
-        <v>0.06616320807674292</v>
+        <v>0.1234447369295175</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008175007755275234</v>
+        <v>0.002512677326540434</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.14032868785489</v>
+        <v>0.4007487304887718</v>
       </c>
       <c r="L17">
-        <v>0.1951562213142495</v>
+        <v>0.2031591578986536</v>
       </c>
       <c r="M17">
-        <v>0.2925458275486505</v>
+        <v>0.1972922187151624</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.108246346586469</v>
+        <v>6.048229357096005</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.349285504914974</v>
+        <v>0.7360959416679975</v>
       </c>
       <c r="C18">
-        <v>0.1377580532710638</v>
+        <v>0.1687589774984417</v>
       </c>
       <c r="D18">
-        <v>0.2731805673481631</v>
+        <v>0.1000876018116656</v>
       </c>
       <c r="E18">
-        <v>0.06573226061677673</v>
+        <v>0.1234513365330958</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008186961085214285</v>
+        <v>0.002513382105542288</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.111345408501222</v>
+        <v>0.3927763831613049</v>
       </c>
       <c r="L18">
-        <v>0.1911943776866281</v>
+        <v>0.2023534706618193</v>
       </c>
       <c r="M18">
-        <v>0.2853708781354598</v>
+        <v>0.1955673426759219</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.070065388926508</v>
+        <v>6.044660566774638</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.337404204714545</v>
+        <v>0.7330790688299089</v>
       </c>
       <c r="C19">
-        <v>0.1376021142370689</v>
+        <v>0.1686813530396449</v>
       </c>
       <c r="D19">
-        <v>0.2707165118852828</v>
+        <v>0.0994174497083975</v>
       </c>
       <c r="E19">
-        <v>0.06558786658040994</v>
+        <v>0.1234542573384392</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008191021737558846</v>
+        <v>0.002513622414769111</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.101544881409609</v>
+        <v>0.390078751785353</v>
       </c>
       <c r="L19">
-        <v>0.1898575314826019</v>
+        <v>0.2020822506892017</v>
       </c>
       <c r="M19">
-        <v>0.2829468096400873</v>
+        <v>0.1949848649784087</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.057267992083183</v>
+        <v>6.043495064552275</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.390954344655142</v>
+        <v>0.7466766347099281</v>
       </c>
       <c r="C20">
-        <v>0.1383041626315844</v>
+        <v>0.1690298043276215</v>
       </c>
       <c r="D20">
-        <v>0.2818272824678445</v>
+        <v>0.1024357235520199</v>
       </c>
       <c r="E20">
-        <v>0.06624369396439178</v>
+        <v>0.1234438413810626</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008172801804959943</v>
+        <v>0.002512547686704066</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.145699033289191</v>
+        <v>0.402225023313548</v>
       </c>
       <c r="L20">
-        <v>0.1958916693771187</v>
+        <v>0.2033090188411251</v>
       </c>
       <c r="M20">
-        <v>0.2938762857931749</v>
+        <v>0.1976121833784745</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.115375259797844</v>
+        <v>6.048910203977385</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.572447041940165</v>
+        <v>0.7927335822564316</v>
       </c>
       <c r="C21">
-        <v>0.140669824850356</v>
+        <v>0.1701853571083376</v>
       </c>
       <c r="D21">
-        <v>0.3195785697959082</v>
+        <v>0.1126207504813692</v>
       </c>
       <c r="E21">
-        <v>0.06855673156684361</v>
+        <v>0.1234565279428388</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008112490463111217</v>
+        <v>0.002509053522893202</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.295030072796266</v>
+        <v>0.4431496098050616</v>
       </c>
       <c r="L21">
-        <v>0.2165023754052555</v>
+        <v>0.2075399512161624</v>
       </c>
       <c r="M21">
-        <v>0.3309902998393284</v>
+        <v>0.2065460780075767</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.320097254625693</v>
+        <v>6.070083930795533</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.692386365246847</v>
+        <v>0.8231087834411142</v>
       </c>
       <c r="C22">
-        <v>0.1422230243104892</v>
+        <v>0.1709292330611945</v>
       </c>
       <c r="D22">
-        <v>0.3446044140415125</v>
+        <v>0.1193101143600757</v>
       </c>
       <c r="E22">
-        <v>0.07015499492757726</v>
+        <v>0.123500288586893</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000807370973799634</v>
+        <v>0.002506856554452101</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.393473426684523</v>
+        <v>0.4699802299360272</v>
       </c>
       <c r="L22">
-        <v>0.230247381678808</v>
+        <v>0.2103862470979294</v>
       </c>
       <c r="M22">
-        <v>0.3555729486682324</v>
+        <v>0.2124638154954255</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.461517031140545</v>
+        <v>6.086143184190803</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.628241229007756</v>
+        <v>0.8068720058808196</v>
       </c>
       <c r="C23">
-        <v>0.1413932685277786</v>
+        <v>0.1705332516878642</v>
       </c>
       <c r="D23">
-        <v>0.3312126798404194</v>
+        <v>0.1157368660174711</v>
       </c>
       <c r="E23">
-        <v>0.06929372372433917</v>
+        <v>0.123473691719127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008094352085480372</v>
+        <v>0.002508021210877174</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.340847021719895</v>
+        <v>0.4556526301723807</v>
       </c>
       <c r="L23">
-        <v>0.2228846939929809</v>
+        <v>0.2088597155523217</v>
       </c>
       <c r="M23">
-        <v>0.3424205789554335</v>
+        <v>0.2092982138269477</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.385304431127963</v>
+        <v>6.077368820014442</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.388008085801175</v>
+        <v>0.7459285201190369</v>
       </c>
       <c r="C24">
-        <v>0.1382655883824953</v>
+        <v>0.1690107261667251</v>
       </c>
       <c r="D24">
-        <v>0.2812156467505247</v>
+        <v>0.1022698087892024</v>
       </c>
       <c r="E24">
-        <v>0.06620727897018419</v>
+        <v>0.1234442338147783</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008173798857798623</v>
+        <v>0.002512606265412649</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.143270900417946</v>
+        <v>0.4015575724599216</v>
       </c>
       <c r="L24">
-        <v>0.1955590940759464</v>
+        <v>0.2032412393708398</v>
       </c>
       <c r="M24">
-        <v>0.2932746977016194</v>
+        <v>0.1974675019866652</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.112149927672561</v>
+        <v>6.048601621674067</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.133601744852598</v>
+        <v>0.6813827679351618</v>
       </c>
       <c r="C25">
-        <v>0.1349100364269091</v>
+        <v>0.167319848666736</v>
       </c>
       <c r="D25">
-        <v>0.2285518406678335</v>
+        <v>0.08788418979175106</v>
       </c>
       <c r="E25">
-        <v>0.06321868721171064</v>
+        <v>0.123565188748973</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008262469165942071</v>
+        <v>0.002517926476916976</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9330517648539001</v>
+        <v>0.343577675305113</v>
       </c>
       <c r="L25">
-        <v>0.1671142585038012</v>
+        <v>0.1975305600891701</v>
       </c>
       <c r="M25">
-        <v>0.2414505921653465</v>
+        <v>0.1850477308785372</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.846774934060221</v>
+        <v>6.027105144737334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6348862741258756</v>
+        <v>0.9493434332358675</v>
       </c>
       <c r="C2">
-        <v>0.1660329477771043</v>
+        <v>0.1324424963406337</v>
       </c>
       <c r="D2">
-        <v>0.07741023265785429</v>
+        <v>0.1906037392467539</v>
       </c>
       <c r="E2">
-        <v>0.1237860245306699</v>
+        <v>0.06127925914717025</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002522169166861987</v>
+        <v>0.0008330573194115982</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.301206131509133</v>
+        <v>0.7799886599641184</v>
       </c>
       <c r="L2">
-        <v>0.1936269566045041</v>
+        <v>0.1469015002794265</v>
       </c>
       <c r="M2">
-        <v>0.1761975111647409</v>
+        <v>0.2040905381764446</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.019464854163488</v>
+        <v>3.673035594521821</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6040193108883614</v>
+        <v>0.825928423342674</v>
       </c>
       <c r="C3">
-        <v>0.1651346122813457</v>
+        <v>0.1307668149187435</v>
       </c>
       <c r="D3">
-        <v>0.07038428588825241</v>
+        <v>0.1652846177548497</v>
       </c>
       <c r="E3">
-        <v>0.1240181189210272</v>
+        <v>0.06011326298920139</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002525249183918784</v>
+        <v>0.0008378603006918805</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2726903643780219</v>
+        <v>0.6769834635412906</v>
       </c>
       <c r="L3">
-        <v>0.1911695842255696</v>
+        <v>0.1335892269682333</v>
       </c>
       <c r="M3">
-        <v>0.1703838107122486</v>
+        <v>0.1791683761865812</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.019389523647959</v>
+        <v>3.567217654705729</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5853860983739878</v>
+        <v>0.7507354015242527</v>
       </c>
       <c r="C4">
-        <v>0.1645701085249023</v>
+        <v>0.1297347136330025</v>
       </c>
       <c r="D4">
-        <v>0.0661056833492637</v>
+        <v>0.1498995470529394</v>
       </c>
       <c r="E4">
-        <v>0.1242013713758965</v>
+        <v>0.05946611522363376</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002527241856007538</v>
+        <v>0.0008409054536440113</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2552809379992595</v>
+        <v>0.6139929035809502</v>
       </c>
       <c r="L4">
-        <v>0.1897537074724909</v>
+        <v>0.125584751526354</v>
       </c>
       <c r="M4">
-        <v>0.1669053173570987</v>
+        <v>0.1640316764537815</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.021859274864568</v>
+        <v>3.507649162655838</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.577873595309228</v>
+        <v>0.7202222313672166</v>
       </c>
       <c r="C5">
-        <v>0.1643368222911796</v>
+        <v>0.1293131100624372</v>
       </c>
       <c r="D5">
-        <v>0.06437099703272509</v>
+        <v>0.1436655891363614</v>
       </c>
       <c r="E5">
-        <v>0.1242863093233364</v>
+        <v>0.05921908074254034</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002528079493852908</v>
+        <v>0.0008421710428503427</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2482117171233114</v>
+        <v>0.5883738707925232</v>
       </c>
       <c r="L5">
-        <v>0.1892001463597097</v>
+        <v>0.122362540180788</v>
       </c>
       <c r="M5">
-        <v>0.1655108034750867</v>
+        <v>0.1579008730408376</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.023498478760786</v>
+        <v>3.484667040386739</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5766310350457786</v>
+        <v>0.7151627941303502</v>
       </c>
       <c r="C6">
-        <v>0.1642978893097755</v>
+        <v>0.1292430362856152</v>
       </c>
       <c r="D6">
-        <v>0.0640834896182696</v>
+        <v>0.1426324562047512</v>
       </c>
       <c r="E6">
-        <v>0.1243010333991403</v>
+        <v>0.05917905121448008</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002528220132099059</v>
+        <v>0.0008423826967919308</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2470394122663748</v>
+        <v>0.5841224843688906</v>
       </c>
       <c r="L6">
-        <v>0.1891096438000446</v>
+        <v>0.1218298091458223</v>
       </c>
       <c r="M6">
-        <v>0.1652806371000537</v>
+        <v>0.1568850082481568</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.023808887242296</v>
+        <v>3.480927069811798</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5852844549058887</v>
+        <v>0.7503233930079602</v>
       </c>
       <c r="C7">
-        <v>0.1645669754857515</v>
+        <v>0.1297290320999167</v>
       </c>
       <c r="D7">
-        <v>0.06608225282731439</v>
+        <v>0.1498153359198255</v>
       </c>
       <c r="E7">
-        <v>0.1242024753115842</v>
+        <v>0.05946271686438642</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002527253048869439</v>
+        <v>0.0008409224213608274</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.255185497364522</v>
+        <v>0.6136472112641655</v>
       </c>
       <c r="L7">
-        <v>0.1897461470664226</v>
+        <v>0.1255411387196759</v>
       </c>
       <c r="M7">
-        <v>0.166886417218155</v>
+        <v>0.1639488476326711</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.021878819615324</v>
+        <v>3.507334069414526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6241773235777259</v>
+        <v>0.9066572657283416</v>
       </c>
       <c r="C8">
-        <v>0.165725885239425</v>
+        <v>0.1318652628992822</v>
       </c>
       <c r="D8">
-        <v>0.07498033847961949</v>
+        <v>0.1818372611590462</v>
       </c>
       <c r="E8">
-        <v>0.1238576029477798</v>
+        <v>0.06086257031046394</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00252321013124213</v>
+        <v>0.000834693749273727</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2913534255243349</v>
+        <v>0.744410813991351</v>
       </c>
       <c r="L8">
-        <v>0.1927603863055154</v>
+        <v>0.142274489161025</v>
       </c>
       <c r="M8">
-        <v>0.1741740774633946</v>
+        <v>0.1954604446195525</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.018916724202853</v>
+        <v>3.635386781080882</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7029656906039747</v>
+        <v>1.218760134299885</v>
       </c>
       <c r="C9">
-        <v>0.1678959277226113</v>
+        <v>0.1360390984469291</v>
       </c>
       <c r="D9">
-        <v>0.09271147801162272</v>
+        <v>0.2461465440174635</v>
       </c>
       <c r="E9">
-        <v>0.1235040041859019</v>
+        <v>0.06418281629095013</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002516084025555325</v>
+        <v>0.0008232179415288332</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3630588624062625</v>
+        <v>1.003548348770153</v>
       </c>
       <c r="L9">
-        <v>0.1994074638843415</v>
+        <v>0.176572553073683</v>
       </c>
       <c r="M9">
-        <v>0.1891856784037707</v>
+        <v>0.2587695295574441</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.033073731351237</v>
+        <v>3.932580273611421</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7623764140513174</v>
+        <v>1.452790986932712</v>
       </c>
       <c r="C10">
-        <v>0.1694277934688557</v>
+        <v>0.1391124441473863</v>
       </c>
       <c r="D10">
-        <v>0.1059138734697029</v>
+        <v>0.2946733367847401</v>
       </c>
       <c r="E10">
-        <v>0.1234402296680841</v>
+        <v>0.06701661133131509</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002511332456939115</v>
+        <v>0.0008152013917941736</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4162111265986539</v>
+        <v>1.196630820666144</v>
       </c>
       <c r="L10">
-        <v>0.2047387190339407</v>
+        <v>0.2028870685695949</v>
       </c>
       <c r="M10">
-        <v>0.2006517892731594</v>
+        <v>0.3065093756647315</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.055658907306395</v>
+        <v>4.183810594987932</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7897331222930575</v>
+        <v>1.560612695508411</v>
       </c>
       <c r="C11">
-        <v>0.1701111397274744</v>
+        <v>0.140516162096489</v>
       </c>
       <c r="D11">
-        <v>0.111958860438591</v>
+        <v>0.3171126029358504</v>
       </c>
       <c r="E11">
-        <v>0.1234536371230739</v>
+        <v>0.06840190989772665</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002509274880822738</v>
+        <v>0.0008116360651753844</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4404928243598079</v>
+        <v>1.285306780679718</v>
       </c>
       <c r="L11">
-        <v>0.2072610590793573</v>
+        <v>0.2151513254216013</v>
       </c>
       <c r="M11">
-        <v>0.2059625653375647</v>
+        <v>0.3285670618226035</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.068582458309947</v>
+        <v>4.30639907986864</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8001396112309749</v>
+        <v>1.60166687505594</v>
       </c>
       <c r="C12">
-        <v>0.1703679620925627</v>
+        <v>0.1410489032504003</v>
       </c>
       <c r="D12">
-        <v>0.1142536028529832</v>
+        <v>0.3256697849353145</v>
       </c>
       <c r="E12">
-        <v>0.1234648005123553</v>
+        <v>0.06894125940436879</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002508510596247519</v>
+        <v>0.0008102969336644126</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4497022171227911</v>
+        <v>1.319029730234519</v>
       </c>
       <c r="L12">
-        <v>0.2082301380198714</v>
+        <v>0.2198422611617161</v>
       </c>
       <c r="M12">
-        <v>0.2079871874704651</v>
+        <v>0.3369752628579477</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.073857363544619</v>
+        <v>4.35411894976022</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7978962997111125</v>
+        <v>1.592814655506885</v>
       </c>
       <c r="C13">
-        <v>0.1703127374089277</v>
+        <v>0.1409341088902636</v>
       </c>
       <c r="D13">
-        <v>0.1137591381969969</v>
+        <v>0.3238240511651043</v>
       </c>
       <c r="E13">
-        <v>0.1234621258024617</v>
+        <v>0.06882442842266201</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002508674538272536</v>
+        <v>0.0008105848635223833</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.447718172011804</v>
+        <v>1.311760142717588</v>
       </c>
       <c r="L13">
-        <v>0.2080208109629069</v>
+        <v>0.2188298304659213</v>
       </c>
       <c r="M13">
-        <v>0.2075505477094168</v>
+        <v>0.3351618324204608</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.072704370785516</v>
+        <v>4.343782126455324</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7905883289238318</v>
+        <v>1.563985575554682</v>
       </c>
       <c r="C14">
-        <v>0.1701323076803973</v>
+        <v>0.1405599650278759</v>
       </c>
       <c r="D14">
-        <v>0.1121475372639367</v>
+        <v>0.3178153612168728</v>
       </c>
       <c r="E14">
-        <v>0.1234544336410188</v>
+        <v>0.06844598094515675</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002509211704907772</v>
+        <v>0.000811525678368152</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.441250198905351</v>
+        <v>1.288078182282305</v>
       </c>
       <c r="L14">
-        <v>0.2073405069845933</v>
+        <v>0.215536287972526</v>
       </c>
       <c r="M14">
-        <v>0.2061288612035241</v>
+        <v>0.329257659741792</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.06900879109935</v>
+        <v>4.310298374395018</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7861181067025598</v>
+        <v>1.546357057925377</v>
       </c>
       <c r="C15">
-        <v>0.1700215357226398</v>
+        <v>0.1403309570170563</v>
       </c>
       <c r="D15">
-        <v>0.1111611194727971</v>
+        <v>0.3141429025353375</v>
       </c>
       <c r="E15">
-        <v>0.1234505141828919</v>
+        <v>0.06821612299312818</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002509542670284427</v>
+        <v>0.0008121033620303011</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4372902505531044</v>
+        <v>1.273591649875755</v>
       </c>
       <c r="L15">
-        <v>0.2069256131324408</v>
+        <v>0.2135251231266011</v>
       </c>
       <c r="M15">
-        <v>0.2052597988523246</v>
+        <v>0.3256486032256518</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.066794765601003</v>
+        <v>4.28996092718819</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7605952024580915</v>
+        <v>1.44577436548596</v>
       </c>
       <c r="C16">
-        <v>0.1693828630639445</v>
+        <v>0.1390208522873735</v>
       </c>
       <c r="D16">
-        <v>0.1055196077967651</v>
+        <v>0.2932148383197557</v>
       </c>
       <c r="E16">
-        <v>0.1234402058797492</v>
+        <v>0.06692809274326095</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002511469009688011</v>
+        <v>0.0008154359716706229</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4146262972755039</v>
+        <v>1.19085443634475</v>
       </c>
       <c r="L16">
-        <v>0.2045758289118424</v>
+        <v>0.2020918563047189</v>
       </c>
       <c r="M16">
-        <v>0.2003066177379367</v>
+        <v>0.3050752478007723</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.054867640688286</v>
+        <v>4.175974947138599</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.745022066661079</v>
+        <v>1.384438268922281</v>
       </c>
       <c r="C17">
-        <v>0.1689875958745688</v>
+        <v>0.1382188422359434</v>
       </c>
       <c r="D17">
-        <v>0.1020687558784772</v>
+        <v>0.2804746141435714</v>
       </c>
       <c r="E17">
-        <v>0.1234447369295175</v>
+        <v>0.06616320807674647</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002512677326540434</v>
+        <v>0.0008175007754608161</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4007487304887718</v>
+        <v>1.140328687854947</v>
       </c>
       <c r="L17">
-        <v>0.2031591578986536</v>
+        <v>0.1951562213142068</v>
       </c>
       <c r="M17">
-        <v>0.1972922187151624</v>
+        <v>0.2925458275486577</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.048229357096005</v>
+        <v>4.108246346586498</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7360959416679975</v>
+        <v>1.349285504914832</v>
       </c>
       <c r="C18">
-        <v>0.1687589774984417</v>
+        <v>0.1377580532710496</v>
       </c>
       <c r="D18">
-        <v>0.1000876018116656</v>
+        <v>0.2731805673481205</v>
       </c>
       <c r="E18">
-        <v>0.1234513365330958</v>
+        <v>0.06573226061676962</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002513382105542288</v>
+        <v>0.0008186961084825812</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3927763831613049</v>
+        <v>1.111345408501137</v>
       </c>
       <c r="L18">
-        <v>0.2023534706618193</v>
+        <v>0.1911943776865996</v>
       </c>
       <c r="M18">
-        <v>0.1955673426759219</v>
+        <v>0.285370878135474</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.044660566774638</v>
+        <v>4.070065388926452</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7330790688299089</v>
+        <v>1.337404204714318</v>
       </c>
       <c r="C19">
-        <v>0.1686813530396449</v>
+        <v>0.1376021142370547</v>
       </c>
       <c r="D19">
-        <v>0.0994174497083975</v>
+        <v>0.2707165118852828</v>
       </c>
       <c r="E19">
-        <v>0.1234542573384392</v>
+        <v>0.06558786658041171</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002513622414769111</v>
+        <v>0.0008191021737558519</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.390078751785353</v>
+        <v>1.101544881409552</v>
       </c>
       <c r="L19">
-        <v>0.2020822506892017</v>
+        <v>0.1898575314825592</v>
       </c>
       <c r="M19">
-        <v>0.1949848649784087</v>
+        <v>0.2829468096400731</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.043495064552275</v>
+        <v>4.057267992083126</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7466766347099281</v>
+        <v>1.390954344655114</v>
       </c>
       <c r="C20">
-        <v>0.1690298043276215</v>
+        <v>0.138304162631691</v>
       </c>
       <c r="D20">
-        <v>0.1024357235520199</v>
+        <v>0.2818272824678303</v>
       </c>
       <c r="E20">
-        <v>0.1234438413810626</v>
+        <v>0.06624369396440777</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002512547686704066</v>
+        <v>0.0008172801804595445</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.402225023313548</v>
+        <v>1.145699033289191</v>
       </c>
       <c r="L20">
-        <v>0.2033090188411251</v>
+        <v>0.1958916693771755</v>
       </c>
       <c r="M20">
-        <v>0.1976121833784745</v>
+        <v>0.2938762857931678</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.048910203977385</v>
+        <v>4.115375259797759</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7927335822564316</v>
+        <v>1.572447041940165</v>
       </c>
       <c r="C21">
-        <v>0.1701853571083376</v>
+        <v>0.1406698248504625</v>
       </c>
       <c r="D21">
-        <v>0.1126207504813692</v>
+        <v>0.3195785697957803</v>
       </c>
       <c r="E21">
-        <v>0.1234565279428388</v>
+        <v>0.06855673156682585</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002509053522893202</v>
+        <v>0.0008112490463389037</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4431496098050616</v>
+        <v>1.295030072796294</v>
       </c>
       <c r="L21">
-        <v>0.2075399512161624</v>
+        <v>0.2165023754050992</v>
       </c>
       <c r="M21">
-        <v>0.2065460780075767</v>
+        <v>0.3309902998393213</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.070083930795533</v>
+        <v>4.32009725462575</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8231087834411142</v>
+        <v>1.692386365246875</v>
       </c>
       <c r="C22">
-        <v>0.1709292330611945</v>
+        <v>0.1422230243104892</v>
       </c>
       <c r="D22">
-        <v>0.1193101143600757</v>
+        <v>0.3446044140416973</v>
       </c>
       <c r="E22">
-        <v>0.123500288586893</v>
+        <v>0.07015499492757371</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002506856554452101</v>
+        <v>0.0008073709738567628</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4699802299360272</v>
+        <v>1.393473426684608</v>
       </c>
       <c r="L22">
-        <v>0.2103862470979294</v>
+        <v>0.2302473816788506</v>
       </c>
       <c r="M22">
-        <v>0.2124638154954255</v>
+        <v>0.3555729486682466</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.086143184190803</v>
+        <v>4.461517031140545</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8068720058808196</v>
+        <v>1.628241229007671</v>
       </c>
       <c r="C23">
-        <v>0.1705332516878642</v>
+        <v>0.1413932685280201</v>
       </c>
       <c r="D23">
-        <v>0.1157368660174711</v>
+        <v>0.3312126798405046</v>
       </c>
       <c r="E23">
-        <v>0.123473691719127</v>
+        <v>0.06929372372436049</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002508021210877174</v>
+        <v>0.0008094352085086263</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4556526301723807</v>
+        <v>1.340847021719867</v>
       </c>
       <c r="L23">
-        <v>0.2088597155523217</v>
+        <v>0.2228846939929383</v>
       </c>
       <c r="M23">
-        <v>0.2092982138269477</v>
+        <v>0.3424205789554549</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.077368820014442</v>
+        <v>4.385304431127963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7459285201190369</v>
+        <v>1.388008085801175</v>
       </c>
       <c r="C24">
-        <v>0.1690107261667251</v>
+        <v>0.1382655883824597</v>
       </c>
       <c r="D24">
-        <v>0.1022698087892024</v>
+        <v>0.2812156467505247</v>
       </c>
       <c r="E24">
-        <v>0.1234442338147783</v>
+        <v>0.06620727897018952</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002512606265412649</v>
+        <v>0.0008173798857427909</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4015575724599216</v>
+        <v>1.143270900417832</v>
       </c>
       <c r="L24">
-        <v>0.2032412393708398</v>
+        <v>0.195559094075989</v>
       </c>
       <c r="M24">
-        <v>0.1974675019866652</v>
+        <v>0.2932746977016123</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.048601621674067</v>
+        <v>4.112149927672533</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6813827679351618</v>
+        <v>1.133601744852626</v>
       </c>
       <c r="C25">
-        <v>0.167319848666736</v>
+        <v>0.1349100364267883</v>
       </c>
       <c r="D25">
-        <v>0.08788418979175106</v>
+        <v>0.2285518406679472</v>
       </c>
       <c r="E25">
-        <v>0.123565188748973</v>
+        <v>0.06321868721169466</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002517926476916976</v>
+        <v>0.0008262469165932177</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.343577675305113</v>
+        <v>0.9330517648539285</v>
       </c>
       <c r="L25">
-        <v>0.1975305600891701</v>
+        <v>0.1671142585038439</v>
       </c>
       <c r="M25">
-        <v>0.1850477308785372</v>
+        <v>0.2414505921653358</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.027105144737334</v>
+        <v>3.84677493406025</v>
       </c>
     </row>
   </sheetData>
